--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Trem2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H2">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I2">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J2">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>64.942656300911</v>
+        <v>0.04683200000000001</v>
       </c>
       <c r="N2">
-        <v>64.942656300911</v>
+        <v>0.140496</v>
       </c>
       <c r="O2">
-        <v>0.5748720782882908</v>
+        <v>0.0003849626639153301</v>
       </c>
       <c r="P2">
-        <v>0.5748720782882908</v>
+        <v>0.0003853316059783238</v>
       </c>
       <c r="Q2">
-        <v>2170.001372665155</v>
+        <v>1.891479180581334</v>
       </c>
       <c r="R2">
-        <v>2170.001372665155</v>
+        <v>17.023312625232</v>
       </c>
       <c r="S2">
-        <v>0.2076717974148549</v>
+        <v>0.0001510129608440728</v>
       </c>
       <c r="T2">
-        <v>0.2076717974148549</v>
+        <v>0.0001810474227812858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,433 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.4141147939881</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H3">
-        <v>33.4141147939881</v>
+        <v>121.165817</v>
       </c>
       <c r="I3">
-        <v>0.3612487112493056</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J3">
-        <v>0.3612487112493056</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>48.0262262621122</v>
+        <v>0.05478066666666667</v>
       </c>
       <c r="N3">
-        <v>48.0262262621122</v>
+        <v>0.164342</v>
       </c>
       <c r="O3">
-        <v>0.4251279217117093</v>
+        <v>0.0004503013189925206</v>
       </c>
       <c r="P3">
-        <v>0.4251279217117093</v>
+        <v>0.0004507328805780213</v>
       </c>
       <c r="Q3">
-        <v>1604.753837444263</v>
+        <v>2.212514744157111</v>
       </c>
       <c r="R3">
-        <v>1604.753837444263</v>
+        <v>19.912632697414</v>
       </c>
       <c r="S3">
-        <v>0.1535769138344507</v>
+        <v>0.000176643975707754</v>
       </c>
       <c r="T3">
-        <v>0.1535769138344507</v>
+        <v>0.0002117761043355118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.71710162142608</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H4">
-        <v>8.71710162142608</v>
+        <v>121.165817</v>
       </c>
       <c r="I4">
-        <v>0.09424285952162893</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J4">
-        <v>0.09424285952162893</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>64.942656300911</v>
+        <v>67.84540033333333</v>
       </c>
       <c r="N4">
-        <v>64.942656300911</v>
+        <v>203.536201</v>
       </c>
       <c r="O4">
-        <v>0.5748720782882908</v>
+        <v>0.5576944406970025</v>
       </c>
       <c r="P4">
-        <v>0.5748720782882908</v>
+        <v>0.5582289261335335</v>
       </c>
       <c r="Q4">
-        <v>566.1117345403878</v>
+        <v>2740.181120360136</v>
       </c>
       <c r="R4">
-        <v>566.1117345403878</v>
+        <v>24661.63008324122</v>
       </c>
       <c r="S4">
-        <v>0.05417758851703026</v>
+        <v>0.2187720956608325</v>
       </c>
       <c r="T4">
-        <v>0.05417758851703026</v>
+        <v>0.2622829449503457</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.71710162142608</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H5">
-        <v>8.71710162142608</v>
+        <v>121.165817</v>
       </c>
       <c r="I5">
-        <v>0.09424285952162893</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J5">
-        <v>0.09424285952162893</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.0262262621122</v>
+        <v>53.356906</v>
       </c>
       <c r="N5">
-        <v>48.0262262621122</v>
+        <v>160.070718</v>
       </c>
       <c r="O5">
-        <v>0.4251279217117093</v>
+        <v>0.438597896140243</v>
       </c>
       <c r="P5">
-        <v>0.4251279217117093</v>
+        <v>0.4390182413523758</v>
       </c>
       <c r="Q5">
-        <v>418.6494948204341</v>
+        <v>2155.011036027401</v>
       </c>
       <c r="R5">
-        <v>418.6494948204341</v>
+        <v>19395.09932424661</v>
       </c>
       <c r="S5">
-        <v>0.04006527100459868</v>
+        <v>0.1720529628574238</v>
       </c>
       <c r="T5">
-        <v>0.04006527100459868</v>
+        <v>0.2062720003178025</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.389610839068045</v>
+        <v>40.38860566666667</v>
       </c>
       <c r="H6">
-        <v>0.389610839068045</v>
+        <v>121.165817</v>
       </c>
       <c r="I6">
-        <v>0.004212184412780406</v>
+        <v>0.3922794987653324</v>
       </c>
       <c r="J6">
-        <v>0.004212184412780406</v>
+        <v>0.4698483591077923</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>64.942656300911</v>
+        <v>0.349437</v>
       </c>
       <c r="N6">
-        <v>64.942656300911</v>
+        <v>0.698874</v>
       </c>
       <c r="O6">
-        <v>0.5748720782882908</v>
+        <v>0.002872399179846711</v>
       </c>
       <c r="P6">
-        <v>0.5748720782882908</v>
+        <v>0.001916768027534557</v>
       </c>
       <c r="Q6">
-        <v>25.30236281270559</v>
+        <v>14.113273198343</v>
       </c>
       <c r="R6">
-        <v>25.30236281270559</v>
+        <v>84.679639190058</v>
       </c>
       <c r="S6">
-        <v>0.002421467207508616</v>
+        <v>0.00112678331052422</v>
       </c>
       <c r="T6">
-        <v>0.002421467207508616</v>
+        <v>0.000900590312527391</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.389610839068045</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H7">
-        <v>0.389610839068045</v>
+        <v>28.57052</v>
       </c>
       <c r="I7">
-        <v>0.004212184412780406</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J7">
-        <v>0.004212184412780406</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>48.0262262621122</v>
+        <v>0.04683200000000001</v>
       </c>
       <c r="N7">
-        <v>48.0262262621122</v>
+        <v>0.140496</v>
       </c>
       <c r="O7">
-        <v>0.4251279217117093</v>
+        <v>0.0003849626639153301</v>
       </c>
       <c r="P7">
-        <v>0.4251279217117093</v>
+        <v>0.0003853316059783238</v>
       </c>
       <c r="Q7">
-        <v>18.71153831125331</v>
+        <v>0.4460048642133335</v>
       </c>
       <c r="R7">
-        <v>18.71153831125331</v>
+        <v>4.01404377792</v>
       </c>
       <c r="S7">
-        <v>0.00179071720527179</v>
+        <v>3.560838299843923E-05</v>
       </c>
       <c r="T7">
-        <v>0.00179071720527179</v>
+        <v>4.269041501631753E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.9753222222374</v>
+        <v>9.523506666666668</v>
       </c>
       <c r="H8">
-        <v>49.9753222222374</v>
+        <v>28.57052</v>
       </c>
       <c r="I8">
-        <v>0.540296244816285</v>
+        <v>0.09249827668033554</v>
       </c>
       <c r="J8">
-        <v>0.540296244816285</v>
+        <v>0.1107887709027403</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>64.942656300911</v>
+        <v>0.05478066666666667</v>
       </c>
       <c r="N8">
-        <v>64.942656300911</v>
+        <v>0.164342</v>
       </c>
       <c r="O8">
-        <v>0.5748720782882908</v>
+        <v>0.0004503013189925206</v>
       </c>
       <c r="P8">
-        <v>0.5748720782882908</v>
+        <v>0.0004507328805780213</v>
       </c>
       <c r="Q8">
-        <v>3245.530174606043</v>
+        <v>0.5217040442044445</v>
       </c>
       <c r="R8">
-        <v>3245.530174606043</v>
+        <v>4.69533639784</v>
       </c>
       <c r="S8">
-        <v>0.3106012251488969</v>
+        <v>4.16520959936902E-05</v>
       </c>
       <c r="T8">
-        <v>0.3106012251488969</v>
+        <v>4.993614184469063E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H9">
+        <v>28.57052</v>
+      </c>
+      <c r="I9">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J9">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>67.84540033333333</v>
+      </c>
+      <c r="N9">
+        <v>203.536201</v>
+      </c>
+      <c r="O9">
+        <v>0.5576944406970025</v>
+      </c>
+      <c r="P9">
+        <v>0.5582289261335335</v>
+      </c>
+      <c r="Q9">
+        <v>646.1261223771689</v>
+      </c>
+      <c r="R9">
+        <v>5815.13510139452</v>
+      </c>
+      <c r="S9">
+        <v>0.05158577467867632</v>
+      </c>
+      <c r="T9">
+        <v>0.06184549660869081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H10">
+        <v>28.57052</v>
+      </c>
+      <c r="I10">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J10">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>53.356906</v>
+      </c>
+      <c r="N10">
+        <v>160.070718</v>
+      </c>
+      <c r="O10">
+        <v>0.438597896140243</v>
+      </c>
+      <c r="P10">
+        <v>0.4390182413523758</v>
+      </c>
+      <c r="Q10">
+        <v>508.1448500037068</v>
+      </c>
+      <c r="R10">
+        <v>4573.30365003336</v>
+      </c>
+      <c r="S10">
+        <v>0.04056954954859326</v>
+      </c>
+      <c r="T10">
+        <v>0.04863829136331233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="H9">
-        <v>49.9753222222374</v>
-      </c>
-      <c r="I9">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="J9">
-        <v>0.540296244816285</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>48.0262262621122</v>
-      </c>
-      <c r="N9">
-        <v>48.0262262621122</v>
-      </c>
-      <c r="O9">
-        <v>0.4251279217117093</v>
-      </c>
-      <c r="P9">
-        <v>0.4251279217117093</v>
-      </c>
-      <c r="Q9">
-        <v>2400.126132567138</v>
-      </c>
-      <c r="R9">
-        <v>2400.126132567138</v>
-      </c>
-      <c r="S9">
-        <v>0.2296950196673881</v>
-      </c>
-      <c r="T9">
-        <v>0.2296950196673881</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>9.523506666666668</v>
+      </c>
+      <c r="H11">
+        <v>28.57052</v>
+      </c>
+      <c r="I11">
+        <v>0.09249827668033554</v>
+      </c>
+      <c r="J11">
+        <v>0.1107887709027403</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.349437</v>
+      </c>
+      <c r="N11">
+        <v>0.698874</v>
+      </c>
+      <c r="O11">
+        <v>0.002872399179846711</v>
+      </c>
+      <c r="P11">
+        <v>0.001916768027534557</v>
+      </c>
+      <c r="Q11">
+        <v>3.32786559908</v>
+      </c>
+      <c r="R11">
+        <v>19.96719359448</v>
+      </c>
+      <c r="S11">
+        <v>0.00026569197407383</v>
+      </c>
+      <c r="T11">
+        <v>0.0002123563738762235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.576932</v>
+      </c>
+      <c r="I12">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J12">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04683200000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.140496</v>
+      </c>
+      <c r="O12">
+        <v>0.0003849626639153301</v>
+      </c>
+      <c r="P12">
+        <v>0.0003853316059783238</v>
+      </c>
+      <c r="Q12">
+        <v>0.04022762647466667</v>
+      </c>
+      <c r="R12">
+        <v>0.362048638272</v>
+      </c>
+      <c r="S12">
+        <v>3.211715489145244E-06</v>
+      </c>
+      <c r="T12">
+        <v>3.850482824562842E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.576932</v>
+      </c>
+      <c r="I13">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J13">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.05478066666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.164342</v>
+      </c>
+      <c r="O13">
+        <v>0.0004503013189925206</v>
+      </c>
+      <c r="P13">
+        <v>0.0004507328805780213</v>
+      </c>
+      <c r="Q13">
+        <v>0.04705535097155555</v>
+      </c>
+      <c r="R13">
+        <v>0.4234981587439999</v>
+      </c>
+      <c r="S13">
+        <v>3.756831133392464E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.504014693331528E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.576932</v>
+      </c>
+      <c r="I14">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J14">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>67.84540033333333</v>
+      </c>
+      <c r="N14">
+        <v>203.536201</v>
+      </c>
+      <c r="O14">
+        <v>0.5576944406970025</v>
+      </c>
+      <c r="P14">
+        <v>0.5582289261335335</v>
+      </c>
+      <c r="Q14">
+        <v>58.2776610572591</v>
+      </c>
+      <c r="R14">
+        <v>524.498949515332</v>
+      </c>
+      <c r="S14">
+        <v>0.004652804132170878</v>
+      </c>
+      <c r="T14">
+        <v>0.005578184760614325</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.576932</v>
+      </c>
+      <c r="I15">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J15">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.356906</v>
+      </c>
+      <c r="N15">
+        <v>160.070718</v>
+      </c>
+      <c r="O15">
+        <v>0.438597896140243</v>
+      </c>
+      <c r="P15">
+        <v>0.4390182413523758</v>
+      </c>
+      <c r="Q15">
+        <v>45.83237283079733</v>
+      </c>
+      <c r="R15">
+        <v>412.4913554771759</v>
+      </c>
+      <c r="S15">
+        <v>0.003659190328259882</v>
+      </c>
+      <c r="T15">
+        <v>0.00438695443553156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8589773333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.576932</v>
+      </c>
+      <c r="I16">
+        <v>0.008342927224370099</v>
+      </c>
+      <c r="J16">
+        <v>0.009992647280481435</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.349437</v>
+      </c>
+      <c r="N16">
+        <v>0.698874</v>
+      </c>
+      <c r="O16">
+        <v>0.002872399179846711</v>
+      </c>
+      <c r="P16">
+        <v>0.001916768027534557</v>
+      </c>
+      <c r="Q16">
+        <v>0.300158462428</v>
+      </c>
+      <c r="R16">
+        <v>1.800950774568</v>
+      </c>
+      <c r="S16">
+        <v>2.396421731680147E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.915358681765695E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.582691</v>
+      </c>
+      <c r="I17">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J17">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04683200000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.140496</v>
+      </c>
+      <c r="O17">
+        <v>0.0003849626639153301</v>
+      </c>
+      <c r="P17">
+        <v>0.0003853316059783238</v>
+      </c>
+      <c r="Q17">
+        <v>0.05592819497066667</v>
+      </c>
+      <c r="R17">
+        <v>0.5033537547360001</v>
+      </c>
+      <c r="S17">
+        <v>4.465226159449013E-06</v>
+      </c>
+      <c r="T17">
+        <v>5.353300033223955E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.582691</v>
+      </c>
+      <c r="I18">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J18">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.05478066666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.164342</v>
+      </c>
+      <c r="O18">
+        <v>0.0004503013189925206</v>
+      </c>
+      <c r="P18">
+        <v>0.0004507328805780213</v>
+      </c>
+      <c r="Q18">
+        <v>0.06542073381355555</v>
+      </c>
+      <c r="R18">
+        <v>0.5887866043219999</v>
+      </c>
+      <c r="S18">
+        <v>5.223096725146407E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.261900937109178E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.582691</v>
+      </c>
+      <c r="I19">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J19">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.84540033333333</v>
+      </c>
+      <c r="N19">
+        <v>203.536201</v>
+      </c>
+      <c r="O19">
+        <v>0.5576944406970025</v>
+      </c>
+      <c r="P19">
+        <v>0.5582289261335335</v>
+      </c>
+      <c r="Q19">
+        <v>81.0230350552101</v>
+      </c>
+      <c r="R19">
+        <v>729.2073154968911</v>
+      </c>
+      <c r="S19">
+        <v>0.006468761880054039</v>
+      </c>
+      <c r="T19">
+        <v>0.007755312262096982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H20">
+        <v>3.582691</v>
+      </c>
+      <c r="I20">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J20">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.356906</v>
+      </c>
+      <c r="N20">
+        <v>160.070718</v>
+      </c>
+      <c r="O20">
+        <v>0.438597896140243</v>
+      </c>
+      <c r="P20">
+        <v>0.4390182413523758</v>
+      </c>
+      <c r="Q20">
+        <v>63.72043563801533</v>
+      </c>
+      <c r="R20">
+        <v>573.483920742138</v>
+      </c>
+      <c r="S20">
+        <v>0.005087347379109626</v>
+      </c>
+      <c r="T20">
+        <v>0.006099152858355984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.194230333333333</v>
+      </c>
+      <c r="H21">
+        <v>3.582691</v>
+      </c>
+      <c r="I21">
+        <v>0.01159911487008805</v>
+      </c>
+      <c r="J21">
+        <v>0.01389270942266048</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.349437</v>
+      </c>
+      <c r="N21">
+        <v>0.698874</v>
+      </c>
+      <c r="O21">
+        <v>0.002872399179846711</v>
+      </c>
+      <c r="P21">
+        <v>0.001916768027534557</v>
+      </c>
+      <c r="Q21">
+        <v>0.417308264989</v>
+      </c>
+      <c r="R21">
+        <v>2.503849589934</v>
+      </c>
+      <c r="S21">
+        <v>3.33172880397887E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.662910123718368E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>50.993427</v>
+      </c>
+      <c r="H22">
+        <v>101.986854</v>
+      </c>
+      <c r="I22">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J22">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04683200000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.140496</v>
+      </c>
+      <c r="O22">
+        <v>0.0003849626639153301</v>
+      </c>
+      <c r="P22">
+        <v>0.0003853316059783238</v>
+      </c>
+      <c r="Q22">
+        <v>2.388124173264</v>
+      </c>
+      <c r="R22">
+        <v>14.328745039584</v>
+      </c>
+      <c r="S22">
+        <v>0.0001906643784242238</v>
+      </c>
+      <c r="T22">
+        <v>0.0001523899853229337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50.993427</v>
+      </c>
+      <c r="H23">
+        <v>101.986854</v>
+      </c>
+      <c r="I23">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J23">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.05478066666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.164342</v>
+      </c>
+      <c r="O23">
+        <v>0.0004503013189925206</v>
+      </c>
+      <c r="P23">
+        <v>0.0004507328805780213</v>
+      </c>
+      <c r="Q23">
+        <v>2.793453926678</v>
+      </c>
+      <c r="R23">
+        <v>16.760723560068</v>
+      </c>
+      <c r="S23">
+        <v>0.0002230253194325375</v>
+      </c>
+      <c r="T23">
+        <v>0.0001782547187673782</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>50.993427</v>
+      </c>
+      <c r="H24">
+        <v>101.986854</v>
+      </c>
+      <c r="I24">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J24">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>67.84540033333333</v>
+      </c>
+      <c r="N24">
+        <v>203.536201</v>
+      </c>
+      <c r="O24">
+        <v>0.5576944406970025</v>
+      </c>
+      <c r="P24">
+        <v>0.5582289261335335</v>
+      </c>
+      <c r="Q24">
+        <v>3459.669469183609</v>
+      </c>
+      <c r="R24">
+        <v>20758.01681510166</v>
+      </c>
+      <c r="S24">
+        <v>0.2762150043452687</v>
+      </c>
+      <c r="T24">
+        <v>0.2207669875517857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>50.993427</v>
+      </c>
+      <c r="H25">
+        <v>101.986854</v>
+      </c>
+      <c r="I25">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J25">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.356906</v>
+      </c>
+      <c r="N25">
+        <v>160.070718</v>
+      </c>
+      <c r="O25">
+        <v>0.438597896140243</v>
+      </c>
+      <c r="P25">
+        <v>0.4390182413523758</v>
+      </c>
+      <c r="Q25">
+        <v>2720.851491056862</v>
+      </c>
+      <c r="R25">
+        <v>16325.10894634117</v>
+      </c>
+      <c r="S25">
+        <v>0.2172288460268564</v>
+      </c>
+      <c r="T25">
+        <v>0.1736218423773734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>50.993427</v>
+      </c>
+      <c r="H26">
+        <v>101.986854</v>
+      </c>
+      <c r="I26">
+        <v>0.4952801824598739</v>
+      </c>
+      <c r="J26">
+        <v>0.3954775132863255</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.349437</v>
+      </c>
+      <c r="N26">
+        <v>0.698874</v>
+      </c>
+      <c r="O26">
+        <v>0.002872399179846711</v>
+      </c>
+      <c r="P26">
+        <v>0.001916768027534557</v>
+      </c>
+      <c r="Q26">
+        <v>17.818990150599</v>
+      </c>
+      <c r="R26">
+        <v>71.275960602396</v>
+      </c>
+      <c r="S26">
+        <v>0.001422642389892071</v>
+      </c>
+      <c r="T26">
+        <v>0.0007580386530761015</v>
       </c>
     </row>
   </sheetData>
